--- a/doc/Redis设计书.xlsx
+++ b/doc/Redis设计书.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>考虑后后期用户数据量比较大的时候，Redis能有比较好点的性能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 群组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>群组MSG_ID自增</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -50,47 +46,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>RELATION（每）未读件数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOKEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY=REL_（关系ID/10000）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY=USR_（用户ID）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY=TKN_（Token的HashCode）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系（每）MSG_ID自增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOKEN（每）的用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体实现可参考:talk-db-proxy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 群组-消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群用户(每)已读CNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  群组-成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY=GRP.（群组ID）.SET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>用户(每)更新时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户(每)已读CNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATION（每）未读件数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOKEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KEY=REL_（关系ID/10000）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KEY=USR_（用户ID）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KEY=GRP_（群组ID）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KEY=TKN_（Token的HashCode）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关系（每）MSG_ID自增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOKEN（每）的用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体实现可参考:talk-db-proxy</t>
+    <t>用户(每)推送设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY=GRP.（群组ID)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,13 +449,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -457,56 +472,56 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-    </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -514,22 +529,35 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
         <v>4</v>
       </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>18</v>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
